--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">здесь ничего заполнять не нужно,. После внесения всех остальных колонок проверьте правильность заполнения данной колонки, если что то не устраивает то правьте наименование ВРУЧНУЮ. Данная информация будет на этикетке</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без торгового знака"</t>
+    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарного знака"</t>
   </si>
   <si>
     <t xml:space="preserve">не заполнять</t>
@@ -3265,10 +3265,10 @@
   <dimension ref="A1:AMJ1701"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33947,7 +33947,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35929,7 +35929,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="675">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -302,6 +302,9 @@
     <t xml:space="preserve">НЕ КЛАССИФИЦИРОВАНО</t>
   </si>
   <si>
+    <t xml:space="preserve">АБХАЗИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
@@ -323,1345 +326,1269 @@
     <t xml:space="preserve">НЕ ОПРЕДЕЛЕНО</t>
   </si>
   <si>
+    <t xml:space="preserve">АВСТРАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЮБОЙ ВОЗРАСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКФИЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВСТРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДЗОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЖЕВЫЙ/СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЗ УКАЗАНИЯ ВОЗРАСТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель / артикул производителя(тип)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОСТЫНЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАЙКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАТИСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛБАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель / Артикул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАМАТРАСНИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИОМАТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛЖИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОКРЫВАЛО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЯЗЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАВОЛОЧКА КВАДРАТНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЫЙ/БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕЛЮР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАВОЛОЧКА ПРЯМОУГОЛЬНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВУАЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГИЛЬЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАВОЛОЧКА ЦИЛИНДРИЧЕСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЫЙ/СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАФЕЛЬНОЕ ПОЛОТНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГОЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМПЛЕКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИРЮЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАБАРДИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНДОРРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОРДОВО-РЫЖИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОБЕЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТАРКТИДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОРДОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАМАСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер Регламента/стандарта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРОНЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖЕРСИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРГЕНТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАНИЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖАККАРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРМЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВИШНЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУЛИРНАЯ ГЛАДЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действие технических регламентов не распространяется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЬНЯНАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АФГАНИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОРЧИЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКО-САТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАГАМЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОВРИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРАФИТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАХРОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНГЛАДЕШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЁЛТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОВОЛОКНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРБАДОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕЛЁНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОПОЛИЕСТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАХРЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗОЛОТИСТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОСАТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛИЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОРОЖКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗОЛОТОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОФИБРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗУМРУДНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОФРЕШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЬГИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАПУЧИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОДАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕНИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ СТУЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРПИЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЛЕТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕРМУДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРАЛЛОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕТКАНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛГАРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРГАНЗА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛИВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОФЕЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРИОТЕК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАСНО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРКАЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОТСВАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАСНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИКЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРАЗИЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРЕМОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛЮШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАВАНДОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИКОТТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАЙМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЕОПАРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИСАТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУРКИНА-ФАСО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛИНОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИТЕНСЕЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУРУНДИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕДНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭФИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЛОЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТНЯНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАНУАТУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЯТНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛУЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАТИКАНСКОЕ ГОСУДАРСТВО (ПАПСКИЙ ПРЕСТОЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАТУРАЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОПЛИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИКЕЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОБКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕНГРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЛИВКОВО-БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РАНФОРС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕНЕСУЭЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЛИВКОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОГОЖКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВНЕШНИЕ МАЛЫЕ ОСТРОВА (США)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРАНЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САТИН-ЖАККАРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОСТОЧНЫЙ ТИМОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРЛАМУТРОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САТИН-ЛЮКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЬЕТНАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРСИКОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САТИНОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАБОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕСОЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИНТЕПОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАИТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОЗРАЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИТЕЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУРПУРНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМЕСОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РАЗНОЦВЕТНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОФТКОТТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВАДЕЛУПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОЗОВО-БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПАНЛЕЙС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВАТЕМАЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТРАЙП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВИНЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЫЖЕ-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТРАЙП-САТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВИНЕЯ-БИСАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЫЖИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТВИЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕРМАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛАТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕКСТИЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГИБРАЛТАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕКСТИЛЬНАЯ ТКАНЬ НЕРЕЛЬЕФНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОНДУРАС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕНСЕЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОНКОНГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРИКОТАЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕНАДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-РОЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАЙБЕРПЛАСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕНЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-СЕРЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛАНЕЛЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-СЕРЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛАНЕЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРУЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-ФИОЛЕТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХЛОПКОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРЕБРЯНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХОЛЛОФАЙБЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА КОНГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШЁЛКОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖИБУТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОМИНИКАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-ЖЕЛТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОМИНИКАНСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕГИПЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАПАДНАЯ САХАРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИРЕНЕВЫЙ/ЛИЛОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗИМБАБВЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛИВОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗРАИЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛОНОВАЯ КОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНДОНЕЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИОРДАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-РОЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРАН (ИСЛАМСКАЯ РЕСПУБЛИКА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-СЕРЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-СЕРЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСПАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-ФИОЛЕТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРРАКОТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЙЕМЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИОЛЕТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАБО-ВЕРДЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИСТАШКОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАЗАХСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФУКСИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАЙМАНОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХАКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМБОДЖА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХАКИ/ОЛИВКОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМЕРУН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧЕРНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАНАДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧЕРНЫЙ/БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАТАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧЕРНЫЙ/ЗОЛОТИСТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧЕРНЫЙ/СЕРЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИПР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШОКОЛАДНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРГИЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРИБАТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-ЖЕЛТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОКОСОВЫЕ ОСТРОВА (ОСТРОВА КИЛИНГ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕМНО-ЖЕЛТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЛУМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИЛОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРЫЙ/ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИНЕ-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОСТА-РИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛО-ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛО-СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТЛО-ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУВЕЙТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕЛЕНЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЕЛТЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАТВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИНИЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЕСОТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАСНЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИБЕРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОЗОВЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИВАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИОЛЕТОВЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЕЛТО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАВРИКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАВРИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАДАГАСКАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЙОТТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКАО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛАВИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛЬДИВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛЬТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРОККО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРТИНИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕКСИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОНЕЗИЯ, ОБЪЕДИНЕННЫЕ ГОСУДАРСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЗАМБИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЛДАВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНАКО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНГОЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНТСЕРРАТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЬЯНМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАМИБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАУРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕПАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИГЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИГЕРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИКАРАГУА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИУЭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОРВЕГИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОМАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ БУВЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ НОРФОЛК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ РОЖДЕСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ СВЯТОЙ ЕЛЕНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВА КУКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЛАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЛЕСТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАНАМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАПУА-НОВАЯ ГВИНЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАРАГВАЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛЬША</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОРТУГАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУЭРТО-РИКО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕЮНЬОН</t>
+  </si>
+  <si>
     <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЮБОЙ ВОЗРАСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АКФИЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЬЕТНАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОДЗОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЖЕВЫЙ/СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЗ УКАЗАНИЯ ВОЗРАСТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модель / артикул производителя(тип)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОСТЫНЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАЙКА</t>
+    <t xml:space="preserve">РУАНДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУМЫНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛЬВАДОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САМОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САН-МАРИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САН-ТОМЕ И ПРИНСИПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САУДОВСКАЯ АРАВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВАЗИЛЕНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-МАРТЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНЕГАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИНГАПУР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛОВАКИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛОВЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОМАЛИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУДАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУРИНАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЬЕРРА-ЛЕОНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАДЖИКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОКЕЛАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОНГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРИНИДАД И ТОБАГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУВАЛУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУНИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
   </si>
   <si>
     <t xml:space="preserve">ТУРЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАТИСТ</t>
+    <t xml:space="preserve">УГАНДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗБЕКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УКРАИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УОЛЛИС И ФУТУНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УРУГВАЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАРЕРСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИДЖИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИЛИППИНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИНЛЯНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОЛКЛЕНДСКИЕ ОСТРОВА (МАЛЬВИНСКИЕ)</t>
   </si>
   <si>
     <t xml:space="preserve">ФРАНЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Модель / Артикул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАМАТРАСНИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИОМАТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОКРЫВАЛО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЯЗЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАВОЛОЧКА КВАДРАТНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЫЙ/БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕЛЮР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАВОЛОЧКА ПРЯМОУГОЛЬНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВУАЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАВОЛОЧКА ЦИЛИНДРИЧЕСКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЫЙ/СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАФЕЛЬНОЕ ПОЛОТНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛБАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМПЛЕКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИРЮЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАБАРДИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛЖИР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОРДОВО-РЫЖИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОБЕЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОРДОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДАМАСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер Регламента/стандарта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРОНЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖЕРСИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГИЛЬЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ РУК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАНИЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖАККАРД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГОЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВИШНЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУЛИРНАЯ ГЛАДЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНДОРРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действие технических регламентов не распространяется</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЬНЯНАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТАРКТИДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОРЧИЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКО-САТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОВРИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРАФИТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАХРОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРГЕНТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЁЛТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОВОЛОКНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗЕЛЁНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОПОЛИЕСТР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗОЛОТИСТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОСАТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АФГАНИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОРОЖКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗОЛОТОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОФИБРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАГАМЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗУМРУДНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОФРЕШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНГЛАДЕШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАПУЧИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОДАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАРБАДОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ СТУЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРПИЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МУЛЕТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАХРЕЙН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРАЛЛОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТКАНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛИЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРГАНЗА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОФЕЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРИОТЕК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЬГИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРАСНО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРКАЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕНИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРАСНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИКЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕРМУДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРЕМОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛЮШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛГАРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАВАНДОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИКОТТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛИВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАЙМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЕОПАРД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИСАТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОТСВАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛИНОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИТЕНСЕЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРАЗИЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕДНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭФИР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОЛОЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТНЯНОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЯТНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛУЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАТУРАЛЬНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОПЛИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУРКИНА-ФАСО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИКЕЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОБКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУРУНДИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЛИВКОВО-БЕЛЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РАНФОРС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЛИВКОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РОГОЖКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАНУАТУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРАНЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САТИН-ЖАККАРД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАТИКАНСКОЕ ГОСУДАРСТВО (ПАПСКИЙ ПРЕСТОЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРЛАМУТРОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САТИН-ЛЮКС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРСИКОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САТИНОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕНГРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕСОЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИНТЕПОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕНЕСУЭЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОЗРАЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИТЕЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВНЕШНИЕ МАЛЫЕ ОСТРОВА (США)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУРПУРНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМЕСОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВОСТОЧНЫЙ ТИМОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РАЗНОЦВЕТНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОФТКОТТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РОЗОВО-БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СПАНЛЕЙС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАБОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РОЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТРАЙП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАИТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЫЖЕ-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТРАЙП-САТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЫЖИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТВИЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САЛАТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕКСТИЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВАДЕЛУПА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕКСТИЛЬНАЯ ТКАНЬ НЕРЕЛЬЕФНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВАТЕМАЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕНСЕЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВИНЕЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТРИКОТАЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВИНЕЯ-БИСАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-РОЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАЙБЕРПЛАСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГЕРМАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-СЕРЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛАНЕЛЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГИБРАЛТАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-СЕРЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛАНЕЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОНДУРАС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОНКОНГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-ФИОЛЕТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХЛОПКОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕНАДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРЕБРЯНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХОЛЛОФАЙБЕР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕНЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРО-БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШЁЛКОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕЦИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРО-ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРУЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРО-ЖЕЛТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГУАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА КОНГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖИБУТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИРЕНЕВЫЙ/ЛИЛОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОМИНИКАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛИВОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОМИНИКАНСКАЯ РЕСПУБЛИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛОНОВАЯ КОСТЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕГИПЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАПАДНАЯ САХАРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗИМБАБВЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-РОЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗРАИЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-СЕРЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-СЕРЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНДОНЕЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИОРДАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-ФИОЛЕТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРРАКОТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРАН (ИСЛАМСКАЯ РЕСПУБЛИКА)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИОЛЕТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИСТАШКОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФУКСИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСПАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХАКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХАКИ/ОЛИВКОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЙЕМЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧЕРНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАБО-ВЕРДЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧЕРНЫЙ/БЕЛЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАЗАХСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧЕРНЫЙ/ЗОЛОТИСТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАЙМАНОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧЕРНЫЙ/СЕРЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМБОДЖА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШОКОЛАДНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМЕРУН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАНАДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАТАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-ЖЕЛТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕМНО-ЖЕЛТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИПР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИЛОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРГИЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРЫЙ/ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРИБАТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИНЕ-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛО-ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОКОСОВЫЕ ОСТРОВА (ОСТРОВА КИЛИНГ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛО-СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЛУМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЕТЛО-ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗЕЛЕНЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОСТА-РИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЕЛТЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИНИЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРАСНЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУВЕЙТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РОЗОВЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИОЛЕТОВЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАТВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЕЛТО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЕСОТО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИБЕРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИВАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИТВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАВРИКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАВРИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАДАГАСКАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЙОТТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКАО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛАВИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛЬДИВЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛЬТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРОККО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРТИНИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕКСИКА</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">МИКРОНЕЗИЯ, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ОБЪЕДИНЕННЫЕ ГОСУДАРСТВА </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">МОЗАМБИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОЛДАВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНАКО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНГОЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНТСЕРРАТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЬЯНМА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАМИБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАУРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕПАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИГЕР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИГЕРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИКАРАГУА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИУЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОРВЕГИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОМАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ БУВЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ НОРФОЛК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ РОЖДЕСТВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ СВЯТОЙ ЕЛЕНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВА КУКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЛАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЛЕСТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАНАМА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАПУА-НОВАЯ ГВИНЕЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАРАГВАЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛЬША</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОРТУГАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУЭРТО-РИКО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕЮНЬОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУАНДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУМЫНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САЛЬВАДОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САМОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САН-МАРИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САН-ТОМЕ И ПРИНСИПИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САУДОВСКАЯ АРАВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВАЗИЛЕНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНЕГАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИНГАПУР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛОВАКИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛОВЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">США</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОМАЛИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУДАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУРИНАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЬЕРРА-ЛЕОНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАДЖИКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАИЛАНД</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ТАЙВАНЬ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ПРОВИНЦИЯ КИТАЯ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ТАНЗАНИЯ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОКЕЛАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОНГА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТРИНИДАД И ТОБАГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУВАЛУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУНИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУРКМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УГАНДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УЗБЕКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УКРАИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УОЛЛИС И ФУТУНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УРУГВАЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАРЕРСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИДЖИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИЛИППИНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИНЛЯНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФОЛКЛЕНДСКИЕ ОСТРОВА (МАЛЬВИНСКИЕ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
   </si>
   <si>
@@ -1671,13 +1598,10 @@
     <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
-    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
-  </si>
-  <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -1698,10 +1622,7 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШРИ ЛАНКА</t>
+    <t xml:space="preserve">ШРИ-ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -1722,10 +1643,7 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -2802,7 +2720,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2888,13 +2806,6 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3140,7 +3051,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3148,15 +3059,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3268,7 +3179,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33944,10 +33855,10 @@
   <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -33997,33 +33908,33 @@
         <v>79</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>64</v>
@@ -34031,64 +33942,64 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>53</v>
@@ -34097,994 +34008,994 @@
         <v>69</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="26" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="26" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="26" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="26" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="26" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="26" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="26" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="26" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="26" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="26" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="26" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="26" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="26" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="26" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="26" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="26" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="26" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="26" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="26" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="26" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="26" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="26" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H80" s="27" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="26" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="26" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="26" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>345</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="26" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="26" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="26" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H87" s="27" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="26" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>74</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="26" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="26" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="26" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H91" s="27" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="26" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H92" s="27" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="26" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H93" s="27" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="26" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H94" s="27" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35092,814 +35003,800 @@
         <v>79</v>
       </c>
       <c r="H95" s="27" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>368</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="26" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="26" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H98" s="27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="26" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="26" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>63</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="26" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="26" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="26" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="26" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="26" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H107" s="27" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="26" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="26" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="26" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="26" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H111" s="27" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="26" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H112" s="27" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="27" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="27" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="27" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="27" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="27" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="27" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="27" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="27" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="27" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="27" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="27" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="27" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="27" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="27" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="27" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="27" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="27" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="27" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="27" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="27" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="27" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="27" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="27" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="27" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="27" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="27" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="27" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="27" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="27" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="27" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="27" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="27" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="27" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="27" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="27" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="27" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="27" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="27" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="27" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="27" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="27" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="27" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="27" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="27" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="27" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="27" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="27" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="27" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="27" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="27" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="27" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="27" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="27" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="27" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="27" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="27" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="27" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="27" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="27" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="27" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="27" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="27" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="27" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="27" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="27" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="27" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="27" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="27" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="27" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="27" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="27" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="27" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="27" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="27" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="27" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="27" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="27" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="27" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="27" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="27" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="27" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="27" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="27" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="27" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="27" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="27" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="27" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="27" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="27" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="27" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="27" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="27" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="27" t="s">
-        <v>102</v>
+        <v>501</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="27" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="27" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="27" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="27" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="27" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="27" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="27" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="27" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="27" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="27" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="27" t="s">
-        <v>105</v>
+        <v>512</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="27" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="27" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="27" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="27" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="27" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="27" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="27" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="27" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="27" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="27" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="27" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="27" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="27" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="27" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="27" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="27" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="27" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H240" s="27" t="s">
-        <v>525</v>
-      </c>
+      <c r="H240" s="27"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H241" s="27" t="s">
-        <v>526</v>
-      </c>
+      <c r="H241" s="27"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H242" s="27" t="s">
-        <v>527</v>
-      </c>
+      <c r="H242" s="27"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H243" s="27" t="s">
-        <v>528</v>
-      </c>
+      <c r="H243" s="27"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H244" s="27" t="s">
-        <v>529</v>
-      </c>
+      <c r="H244" s="27"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H245" s="27" t="s">
-        <v>530</v>
-      </c>
+      <c r="H245" s="27"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H246" s="27" t="s">
-        <v>531</v>
-      </c>
+      <c r="H246" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35929,7 +35826,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
@@ -35937,10 +35834,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35948,7 +35845,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35956,7 +35853,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35964,7 +35861,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35972,7 +35869,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35980,7 +35877,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35988,7 +35885,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35996,7 +35893,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36004,7 +35901,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36012,7 +35909,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36020,7 +35917,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36028,7 +35925,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36036,7 +35933,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36044,7 +35941,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36052,7 +35949,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36060,7 +35957,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36068,7 +35965,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36076,7 +35973,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36084,7 +35981,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36092,7 +35989,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36100,7 +35997,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36108,7 +36005,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36116,7 +36013,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36124,7 +36021,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36132,7 +36029,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36140,7 +36037,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36148,7 +36045,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36156,7 +36053,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36164,7 +36061,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36172,7 +36069,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36180,7 +36077,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36188,7 +36085,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36196,7 +36093,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36204,7 +36101,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36212,7 +36109,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36220,7 +36117,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36228,7 +36125,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36236,7 +36133,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36244,7 +36141,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36252,7 +36149,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36260,7 +36157,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36268,7 +36165,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36276,7 +36173,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36284,7 +36181,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36292,7 +36189,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36300,7 +36197,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36308,7 +36205,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36316,7 +36213,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36324,7 +36221,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36332,7 +36229,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36340,7 +36237,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36348,7 +36245,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36356,7 +36253,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36364,7 +36261,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36372,7 +36269,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36380,7 +36277,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36388,7 +36285,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36396,7 +36293,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36404,7 +36301,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36412,7 +36309,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36420,7 +36317,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36428,7 +36325,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36436,7 +36333,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36444,7 +36341,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36452,7 +36349,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36460,7 +36357,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36468,7 +36365,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36476,7 +36373,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36484,7 +36381,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36492,7 +36389,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36500,7 +36397,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36508,7 +36405,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36516,7 +36413,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36524,7 +36421,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36532,7 +36429,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36540,7 +36437,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36548,7 +36445,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36556,7 +36453,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36564,7 +36461,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36572,7 +36469,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36580,7 +36477,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36588,7 +36485,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36596,7 +36493,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36604,7 +36501,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36612,7 +36509,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36620,7 +36517,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36628,7 +36525,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36636,7 +36533,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36644,7 +36541,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36652,7 +36549,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36660,7 +36557,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36668,7 +36565,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36676,7 +36573,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36684,7 +36581,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36692,7 +36589,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36700,7 +36597,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36708,7 +36605,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36716,7 +36613,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36724,7 +36621,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36732,7 +36629,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36740,7 +36637,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36748,7 +36645,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36756,7 +36653,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36764,7 +36661,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36772,7 +36669,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36780,7 +36677,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36788,7 +36685,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36796,7 +36693,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36804,7 +36701,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36812,7 +36709,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36820,7 +36717,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36828,7 +36725,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36836,7 +36733,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36844,7 +36741,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36852,7 +36749,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36860,7 +36757,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36868,7 +36765,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36876,7 +36773,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36884,7 +36781,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36892,7 +36789,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36900,7 +36797,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36908,7 +36805,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36916,7 +36813,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36924,7 +36821,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36932,7 +36829,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36940,7 +36837,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36948,7 +36845,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36956,7 +36853,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36964,7 +36861,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36972,7 +36869,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36980,7 +36877,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36988,7 +36885,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36996,7 +36893,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37004,7 +36901,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37012,7 +36909,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37020,7 +36917,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37028,7 +36925,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37036,7 +36933,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37044,7 +36941,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37052,7 +36949,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37060,7 +36957,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37068,7 +36965,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37076,7 +36973,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37084,7 +36981,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37092,7 +36989,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="679">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">МАЛАВИ</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">МАЛИ</t>
@@ -1433,10 +1433,13 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЯ</t>
+    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -1466,13 +1469,7 @@
     <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-МАРТЕН</t>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
   </si>
   <si>
     <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
@@ -1484,7 +1481,7 @@
     <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
   </si>
   <si>
     <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
@@ -1496,7 +1493,7 @@
     <t xml:space="preserve">СИНГАПУР</t>
   </si>
   <si>
-    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СИРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СЛОВАКИЯ</t>
@@ -1505,6 +1502,9 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+  </si>
+  <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
   </si>
   <si>
@@ -1523,13 +1523,16 @@
     <t xml:space="preserve">ТАДЖИКИСТАН</t>
   </si>
   <si>
-    <t xml:space="preserve">ТАЙВАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЙЛАНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАНЗАНИЯ</t>
+    <t xml:space="preserve">ТАИЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ, ПРОВИНЦИЯ КИТАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ, ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
   </si>
   <si>
     <t xml:space="preserve">ТОГО</t>
@@ -1550,7 +1553,7 @@
     <t xml:space="preserve">ТУНИС</t>
   </si>
   <si>
-    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+    <t xml:space="preserve">ТУРКМЕНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУРЦИЯ</t>
@@ -1598,10 +1601,13 @@
     <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
+    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
+  </si>
+  <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -1622,7 +1628,10 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШРИ-ЛАНКА</t>
+    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШРИ ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -1643,7 +1652,10 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
+    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮЖНАЯ ОСЕТИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -3179,7 +3191,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33858,7 +33870,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35778,16 +35790,24 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H240" s="27"/>
+      <c r="H240" s="27" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H241" s="27"/>
+      <c r="H241" s="27" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H242" s="27"/>
+      <c r="H242" s="27" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H243" s="27"/>
+      <c r="H243" s="27" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H244" s="27"/>
@@ -35826,7 +35846,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
@@ -35834,10 +35854,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35845,7 +35865,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35853,7 +35873,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35861,7 +35881,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35869,7 +35889,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35877,7 +35897,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35885,7 +35905,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35893,7 +35913,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35901,7 +35921,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35909,7 +35929,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35917,7 +35937,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35925,7 +35945,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35933,7 +35953,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35941,7 +35961,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35949,7 +35969,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35957,7 +35977,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35965,7 +35985,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35973,7 +35993,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35981,7 +36001,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35989,7 +36009,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35997,7 +36017,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36005,7 +36025,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36013,7 +36033,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36021,7 +36041,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36029,7 +36049,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36037,7 +36057,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36045,7 +36065,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36053,7 +36073,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36061,7 +36081,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36069,7 +36089,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36077,7 +36097,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36085,7 +36105,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36093,7 +36113,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36101,7 +36121,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36109,7 +36129,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36117,7 +36137,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36125,7 +36145,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36133,7 +36153,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36141,7 +36161,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36149,7 +36169,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36157,7 +36177,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36165,7 +36185,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36173,7 +36193,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36181,7 +36201,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36189,7 +36209,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36197,7 +36217,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36205,7 +36225,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36213,7 +36233,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36221,7 +36241,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36229,7 +36249,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36237,7 +36257,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36245,7 +36265,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36253,7 +36273,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36261,7 +36281,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36269,7 +36289,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36277,7 +36297,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36285,7 +36305,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36293,7 +36313,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36301,7 +36321,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36309,7 +36329,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36317,7 +36337,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36325,7 +36345,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36333,7 +36353,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36341,7 +36361,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36349,7 +36369,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36357,7 +36377,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36365,7 +36385,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36373,7 +36393,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36381,7 +36401,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36389,7 +36409,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36397,7 +36417,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36405,7 +36425,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36413,7 +36433,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36421,7 +36441,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36429,7 +36449,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36437,7 +36457,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36445,7 +36465,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36453,7 +36473,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36461,7 +36481,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36469,7 +36489,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36477,7 +36497,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36485,7 +36505,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36493,7 +36513,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36501,7 +36521,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36509,7 +36529,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36517,7 +36537,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36525,7 +36545,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36533,7 +36553,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36541,7 +36561,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36549,7 +36569,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36557,7 +36577,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36565,7 +36585,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36573,7 +36593,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36581,7 +36601,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36589,7 +36609,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36597,7 +36617,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36605,7 +36625,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36613,7 +36633,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36621,7 +36641,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36629,7 +36649,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36637,7 +36657,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36645,7 +36665,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36653,7 +36673,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36661,7 +36681,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36669,7 +36689,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36677,7 +36697,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36685,7 +36705,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36693,7 +36713,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36701,7 +36721,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36709,7 +36729,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36717,7 +36737,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36725,7 +36745,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36733,7 +36753,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36741,7 +36761,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36749,7 +36769,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36757,7 +36777,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36765,7 +36785,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36773,7 +36793,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36781,7 +36801,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36789,7 +36809,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36797,7 +36817,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36805,7 +36825,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36813,7 +36833,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36821,7 +36841,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36829,7 +36849,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36837,7 +36857,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36845,7 +36865,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36853,7 +36873,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36861,7 +36881,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36869,7 +36889,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36877,7 +36897,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36885,7 +36905,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36893,7 +36913,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36901,7 +36921,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36909,7 +36929,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36917,7 +36937,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36925,7 +36945,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36933,7 +36953,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36941,7 +36961,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36949,7 +36969,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36957,7 +36977,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36965,7 +36985,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36973,7 +36993,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36981,7 +37001,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36989,7 +37009,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">СЕРЫЙ/ЗЕЛЕНЫЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СИНЕ-ЗЕЛЕНЫЙ</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+    <t xml:space="preserve">США</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -3191,7 +3191,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33870,7 +33870,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35846,7 +35846,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+    <t xml:space="preserve">ОАЭ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -3191,7 +3191,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33866,11 +33866,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E127" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H147" activeCellId="0" sqref="H147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35846,7 +35846,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
+    <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -3191,7 +3191,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33866,11 +33866,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E127" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H147" activeCellId="0" sqref="H147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E136" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H169" activeCellId="0" sqref="H169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35846,7 +35846,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -611,7 +611,7 @@
     <t xml:space="preserve">МИКРОФИБРА</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
@@ -3188,10 +3188,10 @@
   <dimension ref="A1:AMJ1701"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="P1694" activeCellId="0" sqref="P1694"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33322,447 +33322,536 @@
     </row>
     <row r="1607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1607" s="17"/>
+      <c r="P1607" s="17"/>
       <c r="Q1607" s="22"/>
       <c r="R1607" s="2"/>
       <c r="S1607" s="2"/>
     </row>
     <row r="1608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1608" s="17"/>
+      <c r="P1608" s="17"/>
       <c r="Q1608" s="22"/>
       <c r="R1608" s="2"/>
       <c r="S1608" s="2"/>
     </row>
     <row r="1609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1609" s="17"/>
       <c r="Q1609" s="22"/>
       <c r="R1609" s="2"/>
       <c r="S1609" s="2"/>
     </row>
     <row r="1610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1610" s="17"/>
       <c r="Q1610" s="22"/>
       <c r="R1610" s="2"/>
       <c r="S1610" s="2"/>
     </row>
     <row r="1611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1611" s="17"/>
       <c r="Q1611" s="22"/>
       <c r="R1611" s="2"/>
       <c r="S1611" s="2"/>
     </row>
     <row r="1612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1612" s="17"/>
       <c r="Q1612" s="22"/>
       <c r="R1612" s="2"/>
       <c r="S1612" s="2"/>
     </row>
     <row r="1613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1613" s="17"/>
       <c r="Q1613" s="22"/>
       <c r="R1613" s="2"/>
       <c r="S1613" s="2"/>
     </row>
     <row r="1614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1614" s="17"/>
       <c r="Q1614" s="22"/>
       <c r="R1614" s="2"/>
       <c r="S1614" s="2"/>
     </row>
     <row r="1615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1615" s="17"/>
       <c r="Q1615" s="22"/>
       <c r="R1615" s="2"/>
       <c r="S1615" s="2"/>
     </row>
     <row r="1616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1616" s="17"/>
       <c r="Q1616" s="22"/>
       <c r="R1616" s="2"/>
       <c r="S1616" s="2"/>
     </row>
     <row r="1617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1617" s="17"/>
       <c r="Q1617" s="22"/>
       <c r="R1617" s="2"/>
       <c r="S1617" s="2"/>
     </row>
     <row r="1618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1618" s="17"/>
       <c r="Q1618" s="22"/>
       <c r="R1618" s="2"/>
       <c r="S1618" s="2"/>
     </row>
     <row r="1619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1619" s="17"/>
       <c r="Q1619" s="22"/>
       <c r="R1619" s="2"/>
       <c r="S1619" s="2"/>
     </row>
     <row r="1620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1620" s="17"/>
       <c r="Q1620" s="22"/>
       <c r="R1620" s="2"/>
       <c r="S1620" s="2"/>
     </row>
     <row r="1621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1621" s="17"/>
       <c r="Q1621" s="22"/>
       <c r="R1621" s="2"/>
       <c r="S1621" s="2"/>
     </row>
     <row r="1622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1622" s="17"/>
       <c r="Q1622" s="22"/>
       <c r="R1622" s="2"/>
       <c r="S1622" s="2"/>
     </row>
     <row r="1623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1623" s="17"/>
       <c r="Q1623" s="22"/>
       <c r="R1623" s="2"/>
       <c r="S1623" s="2"/>
     </row>
     <row r="1624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1624" s="17"/>
       <c r="Q1624" s="22"/>
       <c r="R1624" s="2"/>
       <c r="S1624" s="2"/>
     </row>
     <row r="1625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1625" s="17"/>
       <c r="Q1625" s="22"/>
       <c r="R1625" s="2"/>
       <c r="S1625" s="2"/>
     </row>
     <row r="1626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1626" s="17"/>
       <c r="Q1626" s="22"/>
       <c r="R1626" s="2"/>
       <c r="S1626" s="2"/>
     </row>
     <row r="1627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1627" s="17"/>
       <c r="Q1627" s="22"/>
       <c r="R1627" s="2"/>
       <c r="S1627" s="2"/>
     </row>
     <row r="1628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1628" s="17"/>
       <c r="Q1628" s="22"/>
       <c r="R1628" s="2"/>
       <c r="S1628" s="2"/>
     </row>
     <row r="1629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1629" s="17"/>
       <c r="Q1629" s="22"/>
       <c r="R1629" s="2"/>
       <c r="S1629" s="2"/>
     </row>
     <row r="1630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1630" s="17"/>
       <c r="Q1630" s="22"/>
       <c r="R1630" s="2"/>
       <c r="S1630" s="2"/>
     </row>
     <row r="1631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1631" s="17"/>
       <c r="Q1631" s="22"/>
       <c r="R1631" s="2"/>
       <c r="S1631" s="2"/>
     </row>
     <row r="1632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1632" s="17"/>
       <c r="Q1632" s="22"/>
       <c r="R1632" s="2"/>
       <c r="S1632" s="2"/>
     </row>
     <row r="1633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1633" s="17"/>
       <c r="Q1633" s="22"/>
       <c r="R1633" s="2"/>
       <c r="S1633" s="2"/>
     </row>
     <row r="1634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1634" s="17"/>
       <c r="Q1634" s="22"/>
       <c r="R1634" s="2"/>
       <c r="S1634" s="2"/>
     </row>
     <row r="1635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1635" s="17"/>
       <c r="Q1635" s="22"/>
       <c r="R1635" s="2"/>
       <c r="S1635" s="2"/>
     </row>
     <row r="1636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1636" s="17"/>
       <c r="Q1636" s="22"/>
       <c r="R1636" s="2"/>
       <c r="S1636" s="2"/>
     </row>
     <row r="1637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1637" s="17"/>
       <c r="Q1637" s="22"/>
       <c r="R1637" s="2"/>
       <c r="S1637" s="2"/>
     </row>
     <row r="1638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1638" s="17"/>
       <c r="Q1638" s="22"/>
       <c r="R1638" s="2"/>
       <c r="S1638" s="2"/>
     </row>
     <row r="1639" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1639" s="17"/>
       <c r="Q1639" s="22"/>
       <c r="R1639" s="2"/>
       <c r="S1639" s="2"/>
     </row>
     <row r="1640" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1640" s="17"/>
       <c r="Q1640" s="22"/>
       <c r="R1640" s="2"/>
       <c r="S1640" s="2"/>
     </row>
     <row r="1641" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1641" s="17"/>
       <c r="Q1641" s="22"/>
       <c r="R1641" s="2"/>
       <c r="S1641" s="2"/>
     </row>
     <row r="1642" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1642" s="17"/>
       <c r="Q1642" s="22"/>
       <c r="R1642" s="2"/>
       <c r="S1642" s="2"/>
     </row>
     <row r="1643" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1643" s="17"/>
       <c r="Q1643" s="22"/>
       <c r="R1643" s="2"/>
       <c r="S1643" s="2"/>
     </row>
     <row r="1644" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1644" s="17"/>
       <c r="Q1644" s="22"/>
       <c r="R1644" s="2"/>
       <c r="S1644" s="2"/>
     </row>
     <row r="1645" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1645" s="17"/>
       <c r="Q1645" s="22"/>
       <c r="R1645" s="2"/>
       <c r="S1645" s="2"/>
     </row>
     <row r="1646" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1646" s="17"/>
       <c r="Q1646" s="22"/>
       <c r="R1646" s="2"/>
       <c r="S1646" s="2"/>
     </row>
     <row r="1647" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1647" s="17"/>
       <c r="Q1647" s="22"/>
       <c r="R1647" s="2"/>
       <c r="S1647" s="2"/>
     </row>
     <row r="1648" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1648" s="17"/>
       <c r="Q1648" s="22"/>
       <c r="R1648" s="2"/>
       <c r="S1648" s="2"/>
     </row>
     <row r="1649" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1649" s="17"/>
       <c r="Q1649" s="22"/>
       <c r="R1649" s="2"/>
       <c r="S1649" s="2"/>
     </row>
     <row r="1650" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1650" s="17"/>
       <c r="Q1650" s="22"/>
       <c r="R1650" s="2"/>
       <c r="S1650" s="2"/>
     </row>
     <row r="1651" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1651" s="17"/>
       <c r="Q1651" s="22"/>
       <c r="R1651" s="2"/>
       <c r="S1651" s="2"/>
     </row>
     <row r="1652" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1652" s="17"/>
       <c r="Q1652" s="22"/>
       <c r="R1652" s="2"/>
       <c r="S1652" s="2"/>
     </row>
     <row r="1653" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1653" s="17"/>
       <c r="Q1653" s="22"/>
       <c r="R1653" s="2"/>
       <c r="S1653" s="2"/>
     </row>
     <row r="1654" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1654" s="17"/>
       <c r="Q1654" s="22"/>
       <c r="R1654" s="2"/>
       <c r="S1654" s="2"/>
     </row>
     <row r="1655" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1655" s="17"/>
       <c r="Q1655" s="22"/>
       <c r="R1655" s="2"/>
       <c r="S1655" s="2"/>
     </row>
     <row r="1656" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1656" s="17"/>
       <c r="Q1656" s="22"/>
       <c r="R1656" s="2"/>
       <c r="S1656" s="2"/>
     </row>
     <row r="1657" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1657" s="17"/>
       <c r="Q1657" s="22"/>
       <c r="R1657" s="2"/>
       <c r="S1657" s="2"/>
     </row>
     <row r="1658" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1658" s="17"/>
       <c r="Q1658" s="22"/>
       <c r="R1658" s="2"/>
       <c r="S1658" s="2"/>
     </row>
     <row r="1659" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1659" s="17"/>
       <c r="Q1659" s="22"/>
       <c r="R1659" s="2"/>
       <c r="S1659" s="2"/>
     </row>
     <row r="1660" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1660" s="17"/>
       <c r="Q1660" s="22"/>
       <c r="R1660" s="2"/>
       <c r="S1660" s="2"/>
     </row>
     <row r="1661" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1661" s="17"/>
       <c r="Q1661" s="22"/>
       <c r="R1661" s="2"/>
       <c r="S1661" s="2"/>
     </row>
     <row r="1662" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1662" s="17"/>
       <c r="Q1662" s="22"/>
       <c r="R1662" s="2"/>
       <c r="S1662" s="2"/>
     </row>
     <row r="1663" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1663" s="17"/>
       <c r="Q1663" s="22"/>
       <c r="R1663" s="2"/>
       <c r="S1663" s="2"/>
     </row>
     <row r="1664" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1664" s="17"/>
       <c r="Q1664" s="22"/>
       <c r="R1664" s="2"/>
       <c r="S1664" s="2"/>
     </row>
     <row r="1665" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1665" s="17"/>
       <c r="Q1665" s="22"/>
       <c r="R1665" s="2"/>
       <c r="S1665" s="2"/>
     </row>
     <row r="1666" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1666" s="17"/>
       <c r="Q1666" s="22"/>
       <c r="R1666" s="2"/>
       <c r="S1666" s="2"/>
     </row>
     <row r="1667" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1667" s="17"/>
       <c r="Q1667" s="22"/>
       <c r="R1667" s="2"/>
       <c r="S1667" s="2"/>
     </row>
     <row r="1668" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1668" s="17"/>
       <c r="Q1668" s="22"/>
       <c r="R1668" s="2"/>
       <c r="S1668" s="2"/>
     </row>
     <row r="1669" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1669" s="17"/>
       <c r="Q1669" s="22"/>
       <c r="R1669" s="2"/>
       <c r="S1669" s="2"/>
     </row>
     <row r="1670" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1670" s="17"/>
       <c r="Q1670" s="22"/>
       <c r="R1670" s="2"/>
       <c r="S1670" s="2"/>
     </row>
     <row r="1671" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1671" s="17"/>
       <c r="Q1671" s="22"/>
       <c r="R1671" s="2"/>
       <c r="S1671" s="2"/>
     </row>
     <row r="1672" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1672" s="17"/>
       <c r="Q1672" s="22"/>
       <c r="R1672" s="2"/>
       <c r="S1672" s="2"/>
     </row>
     <row r="1673" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1673" s="17"/>
       <c r="Q1673" s="22"/>
       <c r="R1673" s="2"/>
       <c r="S1673" s="2"/>
     </row>
     <row r="1674" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1674" s="17"/>
       <c r="Q1674" s="22"/>
       <c r="R1674" s="2"/>
       <c r="S1674" s="2"/>
     </row>
     <row r="1675" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1675" s="17"/>
       <c r="Q1675" s="22"/>
       <c r="R1675" s="2"/>
       <c r="S1675" s="2"/>
     </row>
     <row r="1676" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1676" s="17"/>
       <c r="Q1676" s="22"/>
       <c r="R1676" s="2"/>
       <c r="S1676" s="2"/>
     </row>
     <row r="1677" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1677" s="17"/>
       <c r="Q1677" s="22"/>
       <c r="R1677" s="2"/>
       <c r="S1677" s="2"/>
     </row>
     <row r="1678" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1678" s="17"/>
       <c r="Q1678" s="22"/>
       <c r="R1678" s="2"/>
       <c r="S1678" s="2"/>
     </row>
     <row r="1679" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1679" s="17"/>
       <c r="Q1679" s="22"/>
       <c r="R1679" s="2"/>
       <c r="S1679" s="2"/>
     </row>
     <row r="1680" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1680" s="17"/>
       <c r="Q1680" s="22"/>
       <c r="R1680" s="2"/>
       <c r="S1680" s="2"/>
     </row>
     <row r="1681" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1681" s="17"/>
       <c r="Q1681" s="22"/>
       <c r="R1681" s="2"/>
       <c r="S1681" s="2"/>
     </row>
     <row r="1682" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1682" s="17"/>
       <c r="Q1682" s="22"/>
       <c r="R1682" s="2"/>
       <c r="S1682" s="2"/>
     </row>
     <row r="1683" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1683" s="17"/>
       <c r="Q1683" s="22"/>
       <c r="R1683" s="2"/>
       <c r="S1683" s="2"/>
     </row>
     <row r="1684" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1684" s="17"/>
       <c r="Q1684" s="22"/>
       <c r="R1684" s="2"/>
       <c r="S1684" s="2"/>
     </row>
     <row r="1685" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1685" s="17"/>
       <c r="Q1685" s="22"/>
       <c r="R1685" s="2"/>
       <c r="S1685" s="2"/>
     </row>
     <row r="1686" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1686" s="17"/>
       <c r="Q1686" s="22"/>
       <c r="R1686" s="2"/>
       <c r="S1686" s="2"/>
     </row>
     <row r="1687" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1687" s="17"/>
       <c r="Q1687" s="22"/>
       <c r="R1687" s="2"/>
       <c r="S1687" s="2"/>
     </row>
     <row r="1688" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1688" s="17"/>
       <c r="Q1688" s="22"/>
       <c r="R1688" s="2"/>
       <c r="S1688" s="2"/>
     </row>
     <row r="1689" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1689" s="17"/>
       <c r="Q1689" s="22"/>
       <c r="R1689" s="2"/>
       <c r="S1689" s="2"/>
     </row>
     <row r="1690" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1690" s="17"/>
       <c r="Q1690" s="22"/>
       <c r="R1690" s="2"/>
       <c r="S1690" s="2"/>
     </row>
     <row r="1691" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1691" s="17"/>
       <c r="Q1691" s="22"/>
       <c r="R1691" s="2"/>
       <c r="S1691" s="2"/>
     </row>
     <row r="1692" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1692" s="17"/>
       <c r="Q1692" s="22"/>
       <c r="R1692" s="2"/>
       <c r="S1692" s="2"/>
     </row>
     <row r="1693" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1693" s="17"/>
       <c r="Q1693" s="22"/>
       <c r="R1693" s="2"/>
       <c r="S1693" s="2"/>
     </row>
     <row r="1694" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1694" s="17"/>
       <c r="Q1694" s="22"/>
       <c r="R1694" s="2"/>
       <c r="S1694" s="2"/>
     </row>
     <row r="1695" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1695" s="17"/>
       <c r="Q1695" s="22"/>
       <c r="R1695" s="2"/>
       <c r="S1695" s="2"/>
@@ -33803,7 +33892,7 @@
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="Q6:S6"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="10">
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B1606 M7:M1606" type="textLength">
       <formula1>129</formula1>
       <formula2>0</formula2>
@@ -33814,10 +33903,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D6 G6:P6" type="textLength">
       <formula1>129</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P1047:P1606" type="list">
-      <formula1>Справочники!$H$2:$H$245</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I7:I1606" type="list">
@@ -33836,16 +33921,16 @@
       <formula1>Справочники!$E$2:$E$96</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P7:P1046" type="list">
-      <formula1>Справочники!$H$2:$H$246</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q7:Q1701" type="list">
       <formula1>Справочники!$I$2:$I$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G1607" type="list">
       <formula1>Справочники!$E$2:$E$112</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P7:P1695" type="list">
+      <formula1>Справочники!$H$2:$H$243</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -33866,11 +33951,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E136" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H169" activeCellId="0" sqref="H169"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35846,7 +35931,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -611,7 +611,7 @@
     <t xml:space="preserve">МИКРОФИБРА</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
@@ -3191,7 +3191,7 @@
       <selection pane="topLeft" activeCell="P1694" activeCellId="0" sqref="P1694"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33955,7 +33955,7 @@
       <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35931,7 +35931,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/белье_по комплектам.xlsx
+++ b/app/download_dir/белье_по комплектам.xlsx
@@ -443,7 +443,7 @@
     <t xml:space="preserve">АНГОЛА</t>
   </si>
   <si>
-    <t xml:space="preserve">КОМПЛЕКТ</t>
+    <t xml:space="preserve">КОМПЛЕКТ ПОСТЕЛЬНОГО БЕЛЬЯ</t>
   </si>
   <si>
     <t xml:space="preserve">БИРЮЗОВЫЙ</t>
@@ -3191,7 +3191,7 @@
       <selection pane="topLeft" activeCell="P1694" activeCellId="0" sqref="P1694"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33951,11 +33951,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35931,7 +35931,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
